--- a/info/QuiDinhDiaChi.xlsx
+++ b/info/QuiDinhDiaChi.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\DuAn\MrTham\InfoFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\MrTham\20220406MrThamGiamSat4Quat1DanMat\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C7696-3172-49AC-B4A6-7A8EBD1E528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="7200" yWindow="1290" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="mappingAddressHMI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CongSP</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="486">
   <si>
     <t>Address</t>
   </si>
@@ -1254,13 +1254,277 @@
   </si>
   <si>
     <t>O2</t>
+  </si>
+  <si>
+    <t>addressPLC</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D63</t>
+  </si>
+  <si>
+    <t>D73</t>
+  </si>
+  <si>
+    <t>D83</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>D55</t>
+  </si>
+  <si>
+    <t>D56</t>
+  </si>
+  <si>
+    <t>D57</t>
+  </si>
+  <si>
+    <t>D58</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>D60</t>
+  </si>
+  <si>
+    <t>D61</t>
+  </si>
+  <si>
+    <t>D62</t>
+  </si>
+  <si>
+    <t>D64</t>
+  </si>
+  <si>
+    <t>D65</t>
+  </si>
+  <si>
+    <t>D66</t>
+  </si>
+  <si>
+    <t>D67</t>
+  </si>
+  <si>
+    <t>D68</t>
+  </si>
+  <si>
+    <t>D69</t>
+  </si>
+  <si>
+    <t>D70</t>
+  </si>
+  <si>
+    <t>D71</t>
+  </si>
+  <si>
+    <t>D72</t>
+  </si>
+  <si>
+    <t>D74</t>
+  </si>
+  <si>
+    <t>D75</t>
+  </si>
+  <si>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>D77</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>D79</t>
+  </si>
+  <si>
+    <t>D80</t>
+  </si>
+  <si>
+    <t>D81</t>
+  </si>
+  <si>
+    <t>D82</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>D85</t>
+  </si>
+  <si>
+    <t>D86</t>
+  </si>
+  <si>
+    <t>M0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,6 +1572,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1430,7 +1707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1453,6 +1730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,7 +1752,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1509,7 +1789,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1547,7 +1833,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1585,7 +1877,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1622,7 +1920,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1660,7 +1964,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1948,11 +2258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,21 +2276,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="U1" t="s">
         <v>390</v>
       </c>
@@ -2373,11 +2683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S178"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,12 +2696,12 @@
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="28.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>163</v>
       </c>
@@ -2399,7 +2709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="J2" s="13" t="s">
@@ -2409,17 +2719,20 @@
         <v>35</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="J3" s="15" t="s">
@@ -2428,15 +2741,18 @@
       <c r="K3" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="15">
         <v>0</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="J4" s="15" t="s">
@@ -2445,15 +2761,18 @@
       <c r="K4" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="15">
         <v>1</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="J5" s="15" t="s">
@@ -2462,15 +2781,18 @@
       <c r="K5" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="15">
         <v>2</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="N5" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="J6" s="15" t="s">
@@ -2479,117 +2801,126 @@
       <c r="K6" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="15">
         <v>3</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="N6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28">
         <v>4</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="N7" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28">
         <v>5</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="N8" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="28"/>
+      <c r="M9" s="28">
         <v>6</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="N9" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="28"/>
+      <c r="M10" s="28">
         <v>7</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="N10" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="28"/>
+      <c r="M11" s="28">
         <v>8</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="N11" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="28"/>
+      <c r="M12" s="28">
         <v>9</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="N12" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="J13" s="15" t="s">
@@ -2598,15 +2929,18 @@
       <c r="K13" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="15">
         <v>10</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="N13" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="J14" s="15" t="s">
@@ -2615,15 +2949,18 @@
       <c r="K14" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="15">
         <v>11</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="N14" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="J15" s="15" t="s">
@@ -2632,15 +2969,18 @@
       <c r="K15" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="15">
         <v>12</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="N15" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="J16" s="15" t="s">
@@ -2649,15 +2989,18 @@
       <c r="K16" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="15">
         <v>13</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="N16" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="J17" s="14" t="s">
@@ -2666,15 +3009,18 @@
       <c r="K17" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="M17" s="14">
         <v>14</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="N17" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="J18" s="15" t="s">
@@ -2683,15 +3029,18 @@
       <c r="K18" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="M18" s="15">
         <v>15</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="N18" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="J19" s="15" t="s">
@@ -2700,15 +3049,18 @@
       <c r="K19" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="M19" s="15">
         <v>16</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="N19" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="J20" s="15" t="s">
@@ -2717,15 +3069,18 @@
       <c r="K20" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M20" s="15">
         <v>17</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="N20" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="J21" s="15" t="s">
@@ -2734,117 +3089,126 @@
       <c r="K21" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" s="15">
         <v>18</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="N21" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="28"/>
+      <c r="M22" s="28">
         <v>19</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="N22" s="28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="28"/>
+      <c r="M23" s="28">
         <v>20</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="N23" s="28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="28"/>
+      <c r="M24" s="28">
         <v>21</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="N24" s="28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="28"/>
+      <c r="M25" s="28">
         <v>22</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="N25" s="28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="28"/>
+      <c r="M26" s="28">
         <v>23</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="N26" s="28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="28"/>
+      <c r="M27" s="28">
         <v>24</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="N27" s="28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="J28" s="15" t="s">
@@ -2853,15 +3217,18 @@
       <c r="K28" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="M28" s="15">
         <v>25</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="N28" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="J29" s="15" t="s">
@@ -2870,14 +3237,17 @@
       <c r="K29" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="M29" s="15">
         <v>0</v>
       </c>
-      <c r="M29" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2887,1965 +3257,2285 @@
       <c r="K30" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="M30" s="15">
         <v>1</v>
       </c>
-      <c r="M30" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="28"/>
+      <c r="M31" s="28">
         <v>2</v>
       </c>
-      <c r="M31" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="15" t="s">
+      <c r="N31" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J32" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="28"/>
+      <c r="M32" s="28">
         <v>3</v>
       </c>
-      <c r="M32" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J33" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="M33" s="15">
         <v>4</v>
       </c>
-      <c r="M33" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J34" s="15" t="s">
         <v>164</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="M34" s="15">
         <v>5</v>
       </c>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J35" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="M35" s="7">
         <v>6</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J36" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="M36" s="7">
         <v>7</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J37" s="4" t="s">
         <v>50</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="M37" s="7">
         <v>8</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J38" s="4" t="s">
         <v>289</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="M38" s="7">
         <v>9</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J39" s="4" t="s">
         <v>51</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="M39" s="7">
         <v>10</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J40" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="M40" s="7">
         <v>11</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J41" s="4" t="s">
         <v>53</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="M41" s="7">
         <v>12</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J42" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="M42" s="7">
         <v>13</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J43" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="M43" s="7">
         <v>14</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J44" s="4" t="s">
         <v>56</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="M44" s="7">
         <v>15</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J45" s="4" t="s">
         <v>57</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="M45" s="7">
         <v>16</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J46" s="4" t="s">
         <v>58</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="M46" s="7">
         <v>17</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J47" s="4" t="s">
+      <c r="N46" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J47" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="29"/>
+      <c r="M47" s="30">
         <v>18</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J48" s="4" t="s">
+      <c r="N47" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="29"/>
+      <c r="M48" s="30">
         <v>19</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J49" s="4" t="s">
+      <c r="N48" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J49" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="29"/>
+      <c r="M49" s="30">
         <v>20</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J50" s="4" t="s">
+      <c r="N49" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J50" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="29"/>
+      <c r="M50" s="30">
         <v>21</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J51" s="4" t="s">
+      <c r="N50" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J51" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="29"/>
+      <c r="M51" s="30">
         <v>22</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J52" s="4" t="s">
+      <c r="N51" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J52" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="29"/>
+      <c r="M52" s="30">
         <v>23</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J53" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="M53" s="7">
         <v>24</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J54" s="4" t="s">
         <v>66</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="M54" s="7">
         <v>25</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J55" s="4" t="s">
         <v>290</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="M55" s="7">
         <v>26</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J56" s="4" t="s">
         <v>67</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="M56" s="7">
         <v>27</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J57" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="M57" s="7">
         <v>28</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J58" s="4" t="s">
         <v>69</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="M58" s="7">
         <v>29</v>
       </c>
-      <c r="M58" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J59" s="4" t="s">
         <v>70</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="M59" s="7">
         <v>30</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J60" s="4" t="s">
         <v>71</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="M60" s="7">
         <v>31</v>
       </c>
-      <c r="M60" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J61" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="M61" s="7">
         <v>32</v>
       </c>
-      <c r="M61" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J62" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="M62" s="7">
         <v>33</v>
       </c>
-      <c r="M62" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J63" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="M63" s="7">
         <v>34</v>
       </c>
-      <c r="M63" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J64" s="4" t="s">
+      <c r="N63" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J64" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="29"/>
+      <c r="M64" s="30">
         <v>35</v>
       </c>
-      <c r="M64" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J65" s="4" t="s">
+      <c r="N64" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J65" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="29"/>
+      <c r="M65" s="30">
         <v>36</v>
       </c>
-      <c r="M65" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J66" s="4" t="s">
+      <c r="N65" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J66" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="29"/>
+      <c r="M66" s="30">
         <v>37</v>
       </c>
-      <c r="M66" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J67" s="4" t="s">
+      <c r="N66" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J67" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="29"/>
+      <c r="M67" s="30">
         <v>38</v>
       </c>
-      <c r="M67" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J68" s="4" t="s">
+      <c r="N67" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J68" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="29"/>
+      <c r="M68" s="30">
         <v>39</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J69" s="4" t="s">
+      <c r="N68" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J69" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="29"/>
+      <c r="M69" s="30">
         <v>40</v>
       </c>
-      <c r="M69" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J70" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="M70" s="7">
         <v>41</v>
       </c>
-      <c r="M70" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J71" s="4" t="s">
         <v>82</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="M71" s="7">
         <v>42</v>
       </c>
-      <c r="M71" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J72" s="4" t="s">
         <v>291</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="M72" s="7">
         <v>43</v>
       </c>
-      <c r="M72" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J73" s="4" t="s">
         <v>83</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="M73" s="7">
         <v>44</v>
       </c>
-      <c r="M73" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J74" s="4" t="s">
         <v>84</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="M74" s="7">
         <v>45</v>
       </c>
-      <c r="M74" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J75" s="4" t="s">
         <v>85</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="M75" s="7">
         <v>46</v>
       </c>
-      <c r="M75" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J76" s="4" t="s">
         <v>86</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="M76" s="7">
         <v>47</v>
       </c>
-      <c r="M76" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J77" s="4" t="s">
         <v>87</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="M77" s="7">
         <v>48</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J78" s="4" t="s">
         <v>88</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="M78" s="7">
         <v>49</v>
       </c>
-      <c r="M78" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J79" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="M79" s="7">
         <v>50</v>
       </c>
-      <c r="M79" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J80" s="4" t="s">
         <v>90</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="M80" s="7">
         <v>51</v>
       </c>
-      <c r="M80" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J81" s="4" t="s">
+      <c r="N80" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J81" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K81" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L81" s="29"/>
+      <c r="M81" s="30">
         <v>52</v>
       </c>
-      <c r="M81" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J82" s="4" t="s">
+      <c r="N81" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J82" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="29"/>
+      <c r="M82" s="30">
         <v>53</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J83" s="4" t="s">
+      <c r="N82" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J83" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83" s="29"/>
+      <c r="M83" s="30">
         <v>54</v>
       </c>
-      <c r="M83" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J84" s="4" t="s">
+      <c r="N83" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J84" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="29"/>
+      <c r="M84" s="30">
         <v>55</v>
       </c>
-      <c r="M84" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J85" s="4" t="s">
+      <c r="N84" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J85" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="29"/>
+      <c r="M85" s="30">
         <v>56</v>
       </c>
-      <c r="M85" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J86" s="4" t="s">
+      <c r="N85" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J86" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="29"/>
+      <c r="M86" s="30">
         <v>57</v>
       </c>
-      <c r="M86" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J87" s="4" t="s">
         <v>97</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M87" s="7">
         <v>58</v>
       </c>
-      <c r="M87" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J88" s="4" t="s">
         <v>98</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="M88" s="7">
         <v>59</v>
       </c>
-      <c r="M88" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J89" s="4" t="s">
         <v>292</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="M89" s="7">
         <v>60</v>
       </c>
-      <c r="M89" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J90" s="4" t="s">
         <v>99</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L90" s="7">
+      <c r="L90" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M90" s="7">
         <v>61</v>
       </c>
-      <c r="M90" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="91" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J91" s="4" t="s">
         <v>100</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L91" s="7">
+      <c r="L91" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="M91" s="7">
         <v>62</v>
       </c>
-      <c r="M91" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J92" s="4" t="s">
         <v>101</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="M92" s="7">
         <v>63</v>
       </c>
-      <c r="M92" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J93" s="4" t="s">
         <v>102</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="M93" s="7">
         <v>64</v>
       </c>
-      <c r="M93" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J94" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="M94" s="7">
         <v>65</v>
       </c>
-      <c r="M94" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J95" s="4" t="s">
         <v>104</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="M95" s="7">
         <v>66</v>
       </c>
-      <c r="M95" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J96" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="L96" s="7">
+      <c r="L96" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="M96" s="7">
         <v>67</v>
       </c>
-      <c r="M96" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J97" s="4" t="s">
         <v>106</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="L97" s="7">
+      <c r="L97" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="M97" s="7">
         <v>68</v>
       </c>
-      <c r="M97" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J98" s="4" t="s">
+      <c r="N97" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J98" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="K98" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="L98" s="7">
+      <c r="L98" s="29"/>
+      <c r="M98" s="30">
         <v>69</v>
       </c>
-      <c r="M98" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J99" s="4" t="s">
+      <c r="N98" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J99" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="K99" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="L99" s="7">
+      <c r="L99" s="29"/>
+      <c r="M99" s="30">
         <v>70</v>
       </c>
-      <c r="M99" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J100" s="4" t="s">
+      <c r="N99" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J100" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="K100" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="L100" s="7">
+      <c r="L100" s="29"/>
+      <c r="M100" s="30">
         <v>71</v>
       </c>
-      <c r="M100" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="101" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J101" s="4" t="s">
+      <c r="N100" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J101" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="K101" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="L101" s="7">
+      <c r="L101" s="29"/>
+      <c r="M101" s="30">
         <v>72</v>
       </c>
-      <c r="M101" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="102" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J102" s="4" t="s">
+      <c r="N101" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J102" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K102" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="L102" s="7">
+      <c r="L102" s="29"/>
+      <c r="M102" s="30">
         <v>73</v>
       </c>
-      <c r="M102" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J103" s="4" t="s">
+      <c r="N102" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J103" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="K103" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="L103" s="7">
+      <c r="L103" s="29"/>
+      <c r="M103" s="30">
         <v>74</v>
       </c>
-      <c r="M103" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J104" s="4" t="s">
         <v>113</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="L104" s="7">
+      <c r="L104" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M104" s="7">
         <v>75</v>
       </c>
-      <c r="M104" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J105" s="4" t="s">
         <v>114</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="L105" s="7">
+      <c r="L105" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="M105" s="7">
         <v>76</v>
       </c>
-      <c r="M105" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J106" s="4" t="s">
         <v>293</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="L106" s="7">
+      <c r="L106" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="M106" s="7">
         <v>77</v>
       </c>
-      <c r="M106" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J107" s="4" t="s">
         <v>115</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="L107" s="7">
+      <c r="L107" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="M107" s="7">
         <v>78</v>
       </c>
-      <c r="M107" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J108" s="4" t="s">
         <v>116</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L108" s="7">
+      <c r="L108" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="M108" s="7">
         <v>79</v>
       </c>
-      <c r="M108" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J109" s="4" t="s">
         <v>117</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="L109" s="7">
+      <c r="L109" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="M109" s="7">
         <v>80</v>
       </c>
-      <c r="M109" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="110" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J110" s="4" t="s">
         <v>118</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="L110" s="7">
+      <c r="L110" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="M110" s="7">
         <v>81</v>
       </c>
-      <c r="M110" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J111" s="4" t="s">
         <v>119</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="L111" s="7">
+      <c r="L111" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M111" s="7">
         <v>82</v>
       </c>
-      <c r="M111" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J112" s="4" t="s">
         <v>120</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="L112" s="7">
+      <c r="L112" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="M112" s="7">
         <v>83</v>
       </c>
-      <c r="M112" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J113" s="4" t="s">
         <v>121</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="L113" s="7">
+      <c r="L113" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="M113" s="7">
         <v>84</v>
       </c>
-      <c r="M113" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J114" s="4" t="s">
         <v>122</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="L114" s="7">
+      <c r="L114" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="M114" s="7">
         <v>85</v>
       </c>
-      <c r="M114" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J115" s="4" t="s">
+      <c r="N114" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J115" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="K115" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="L115" s="7">
+      <c r="L115" s="29"/>
+      <c r="M115" s="30">
         <v>86</v>
       </c>
-      <c r="M115" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J116" s="4" t="s">
+      <c r="N115" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J116" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="L116" s="7">
+      <c r="L116" s="29"/>
+      <c r="M116" s="30">
         <v>87</v>
       </c>
-      <c r="M116" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J117" s="4" t="s">
+      <c r="N116" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J117" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="K117" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="L117" s="7">
+      <c r="L117" s="29"/>
+      <c r="M117" s="30">
         <v>88</v>
       </c>
-      <c r="M117" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J118" s="4" t="s">
+      <c r="N117" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J118" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="K118" s="4" t="s">
+      <c r="K118" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="L118" s="7">
+      <c r="L118" s="29"/>
+      <c r="M118" s="30">
         <v>89</v>
       </c>
-      <c r="M118" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J119" s="4" t="s">
+      <c r="N118" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J119" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="K119" s="4" t="s">
+      <c r="K119" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="L119" s="7">
+      <c r="L119" s="29"/>
+      <c r="M119" s="30">
         <v>90</v>
       </c>
-      <c r="M119" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J120" s="4" t="s">
+      <c r="N119" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J120" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="L120" s="7">
+      <c r="L120" s="29"/>
+      <c r="M120" s="30">
         <v>91</v>
       </c>
-      <c r="M120" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J121" s="4" t="s">
         <v>129</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="L121" s="7">
+      <c r="L121" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="M121" s="7">
         <v>92</v>
       </c>
-      <c r="M121" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J122" s="4" t="s">
         <v>130</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="L122" s="7">
+      <c r="L122" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="M122" s="7">
         <v>93</v>
       </c>
-      <c r="M122" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J123" s="4" t="s">
         <v>294</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="L123" s="7">
+      <c r="L123" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="M123" s="7">
         <v>94</v>
       </c>
-      <c r="M123" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N123" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J124" s="4" t="s">
         <v>131</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L124" s="7">
+      <c r="L124" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="M124" s="7">
         <v>95</v>
       </c>
-      <c r="M124" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N124" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J125" s="4" t="s">
         <v>132</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="L125" s="7">
+      <c r="L125" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="M125" s="7">
         <v>96</v>
       </c>
-      <c r="M125" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J126" s="4" t="s">
         <v>133</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="L126" s="7">
+      <c r="L126" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="M126" s="7">
         <v>97</v>
       </c>
-      <c r="M126" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J127" s="4" t="s">
         <v>134</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L127" s="7">
+      <c r="L127" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="M127" s="7">
         <v>98</v>
       </c>
-      <c r="M127" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J128" s="4" t="s">
         <v>135</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="L128" s="7">
+      <c r="L128" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="M128" s="7">
         <v>99</v>
       </c>
-      <c r="M128" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N128" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J129" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="L129" s="7">
+      <c r="L129" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="M129" s="7">
         <v>100</v>
       </c>
-      <c r="M129" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N129" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J130" s="4" t="s">
         <v>137</v>
       </c>
       <c r="K130" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="L130" s="7">
+      <c r="L130" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="M130" s="7">
         <v>101</v>
       </c>
-      <c r="M130" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N130" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J131" s="4" t="s">
         <v>138</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="L131" s="7">
+      <c r="L131" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="M131" s="7">
         <v>102</v>
       </c>
-      <c r="M131" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J132" s="4" t="s">
+      <c r="N131" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J132" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="K132" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="L132" s="7">
+      <c r="L132" s="29"/>
+      <c r="M132" s="30">
         <v>103</v>
       </c>
-      <c r="M132" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J133" s="4" t="s">
+      <c r="N132" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J133" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="K133" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="L133" s="7">
+      <c r="L133" s="29"/>
+      <c r="M133" s="30">
         <v>104</v>
       </c>
-      <c r="M133" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J134" s="4" t="s">
+      <c r="N133" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J134" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="K134" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="L134" s="7">
+      <c r="L134" s="29"/>
+      <c r="M134" s="30">
         <v>105</v>
       </c>
-      <c r="M134" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J135" s="4" t="s">
+      <c r="N134" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J135" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="K135" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="L135" s="7">
+      <c r="L135" s="29"/>
+      <c r="M135" s="30">
         <v>106</v>
       </c>
-      <c r="M135" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J136" s="4" t="s">
+      <c r="N135" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J136" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="K136" s="4" t="s">
+      <c r="K136" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="L136" s="7">
+      <c r="L136" s="29"/>
+      <c r="M136" s="30">
         <v>107</v>
       </c>
-      <c r="M136" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J137" s="4" t="s">
+      <c r="N136" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J137" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="K137" s="4" t="s">
+      <c r="K137" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="L137" s="7">
+      <c r="L137" s="29"/>
+      <c r="M137" s="30">
         <v>108</v>
       </c>
-      <c r="M137" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N137" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J138" s="4" t="s">
         <v>145</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="L138" s="7">
+      <c r="L138" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="M138" s="7">
         <v>109</v>
       </c>
-      <c r="M138" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N138" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J139" s="4" t="s">
         <v>146</v>
       </c>
       <c r="K139" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="L139" s="7">
+      <c r="L139" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="M139" s="7">
         <v>110</v>
       </c>
-      <c r="M139" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N139" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J140" s="4" t="s">
         <v>295</v>
       </c>
       <c r="K140" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="L140" s="7">
+      <c r="L140" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="M140" s="7">
         <v>111</v>
       </c>
-      <c r="M140" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N140" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J141" s="4" t="s">
         <v>147</v>
       </c>
       <c r="K141" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="L141" s="7">
+      <c r="L141" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="M141" s="7">
         <v>112</v>
       </c>
-      <c r="M141" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="142" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N141" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J142" s="4" t="s">
         <v>148</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="L142" s="7">
+      <c r="L142" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="M142" s="7">
         <v>113</v>
       </c>
-      <c r="M142" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N142" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J143" s="4" t="s">
         <v>149</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="L143" s="7">
+      <c r="L143" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="M143" s="7">
         <v>114</v>
       </c>
-      <c r="M143" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N143" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J144" s="4" t="s">
         <v>150</v>
       </c>
       <c r="K144" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="L144" s="7">
+      <c r="L144" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="M144" s="7">
         <v>115</v>
       </c>
-      <c r="M144" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N144" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J145" s="4" t="s">
         <v>151</v>
       </c>
       <c r="K145" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="L145" s="7">
+      <c r="L145" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="M145" s="7">
         <v>116</v>
       </c>
-      <c r="M145" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N145" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J146" s="4" t="s">
         <v>152</v>
       </c>
       <c r="K146" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="L146" s="7">
+      <c r="L146" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="M146" s="7">
         <v>117</v>
       </c>
-      <c r="M146" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N146" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J147" s="4" t="s">
         <v>153</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="L147" s="7">
+      <c r="L147" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="M147" s="7">
         <v>118</v>
       </c>
-      <c r="M147" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N147" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J148" s="4" t="s">
         <v>154</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="L148" s="7">
+      <c r="L148" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="M148" s="7">
         <v>119</v>
       </c>
-      <c r="M148" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J149" s="4" t="s">
+      <c r="N148" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J149" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="K149" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="L149" s="7">
+      <c r="L149" s="29"/>
+      <c r="M149" s="30">
         <v>120</v>
       </c>
-      <c r="M149" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J150" s="4" t="s">
+      <c r="N149" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J150" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K150" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="L150" s="7">
+      <c r="L150" s="29"/>
+      <c r="M150" s="30">
         <v>121</v>
       </c>
-      <c r="M150" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="151" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J151" s="4" t="s">
+      <c r="N150" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J151" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="K151" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="L151" s="7">
+      <c r="L151" s="29"/>
+      <c r="M151" s="30">
         <v>122</v>
       </c>
-      <c r="M151" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J152" s="4" t="s">
+      <c r="N151" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J152" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="K152" s="4" t="s">
+      <c r="K152" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="L152" s="7">
+      <c r="L152" s="29"/>
+      <c r="M152" s="30">
         <v>123</v>
       </c>
-      <c r="M152" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="153" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J153" s="4" t="s">
+      <c r="N152" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J153" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K153" s="4" t="s">
+      <c r="K153" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="L153" s="7">
+      <c r="L153" s="29"/>
+      <c r="M153" s="30">
         <v>124</v>
       </c>
-      <c r="M153" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="154" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J154" s="4" t="s">
+      <c r="N153" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J154" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="K154" s="4" t="s">
+      <c r="K154" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="L154" s="7">
+      <c r="L154" s="29"/>
+      <c r="M154" s="30">
         <v>125</v>
       </c>
-      <c r="M154" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="155" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N154" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J155" s="4" t="s">
         <v>287</v>
       </c>
       <c r="K155" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="L155" s="7">
+      <c r="L155" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="M155" s="7">
         <v>126</v>
       </c>
-      <c r="M155" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N155" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J156" s="4" t="s">
         <v>325</v>
       </c>
       <c r="K156" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="L156" s="7">
+      <c r="L156" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="M156" s="7">
         <v>127</v>
       </c>
-      <c r="M156" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="157" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N156" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J157" s="4" t="s">
         <v>327</v>
       </c>
       <c r="K157" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="L157" s="7">
+      <c r="L157" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="M157" s="7">
         <v>128</v>
       </c>
-      <c r="M157" s="4" t="s">
+      <c r="N157" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="158" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J158" s="4" t="s">
         <v>386</v>
       </c>
       <c r="K158" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="L158" s="7">
+      <c r="L158" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="M158" s="7">
         <v>129</v>
       </c>
-      <c r="M158" s="4" t="s">
+      <c r="N158" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="159" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J159" s="4" t="s">
+    <row r="159" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J159" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="K159" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="L159" s="7">
+      <c r="L159" s="29"/>
+      <c r="M159" s="30">
         <v>130</v>
       </c>
-      <c r="M159" s="4"/>
-    </row>
-    <row r="160" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J160" s="27" t="s">
+      <c r="N159" s="29"/>
+    </row>
+    <row r="160" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J160" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="K160" s="27" t="s">
+      <c r="K160" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="L160" s="27"/>
-      <c r="M160" s="27" t="s">
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="161" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J161" s="27" t="s">
+    <row r="161" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J161" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="K161" s="27" t="s">
+      <c r="K161" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="L161" s="27"/>
-      <c r="M161" s="27"/>
-    </row>
-    <row r="162" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J162" s="27" t="s">
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="20"/>
+    </row>
+    <row r="162" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J162" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="K162" s="27" t="s">
+      <c r="K162" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="L162" s="27"/>
-      <c r="M162" s="27"/>
-    </row>
-    <row r="163" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J163" s="27" t="s">
+      <c r="L162" s="20"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="20"/>
+    </row>
+    <row r="163" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J163" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="K163" s="27" t="s">
+      <c r="K163" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="L163" s="27"/>
-      <c r="M163" s="27"/>
-    </row>
-    <row r="164" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J164" s="27" t="s">
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="20"/>
+    </row>
+    <row r="164" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J164" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="K164" s="27" t="s">
+      <c r="K164" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="L164" s="27"/>
-      <c r="M164" s="27"/>
-    </row>
-    <row r="165" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J165" s="27" t="s">
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="20"/>
+    </row>
+    <row r="165" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J165" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="K165" s="27" t="s">
+      <c r="K165" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="L165" s="27"/>
-      <c r="M165" s="27"/>
-    </row>
-    <row r="166" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J166" s="27" t="s">
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="20"/>
+    </row>
+    <row r="166" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J166" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="K166" s="27" t="s">
+      <c r="K166" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="L166" s="27"/>
-      <c r="M166" s="27"/>
-    </row>
-    <row r="167" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="L166" s="20"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="20"/>
+    </row>
+    <row r="167" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
-    </row>
-    <row r="168" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
-    </row>
-    <row r="169" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N168" s="4"/>
+    </row>
+    <row r="169" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
-    </row>
-    <row r="170" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N169" s="4"/>
+    </row>
+    <row r="170" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
-    </row>
-    <row r="171" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N170" s="4"/>
+    </row>
+    <row r="171" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
-    </row>
-    <row r="172" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N171" s="4"/>
+    </row>
+    <row r="172" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
-    </row>
-    <row r="173" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N172" s="4"/>
+    </row>
+    <row r="173" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
-    </row>
-    <row r="174" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N173" s="4"/>
+    </row>
+    <row r="174" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
-    </row>
-    <row r="175" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N174" s="4"/>
+    </row>
+    <row r="175" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
-    </row>
-    <row r="176" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N175" s="4"/>
+    </row>
+    <row r="176" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
-    </row>
-    <row r="177" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N176" s="4"/>
+    </row>
+    <row r="177" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
-    </row>
-    <row r="178" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N177" s="4"/>
+    </row>
+    <row r="178" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="A17:A29"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/info/QuiDinhDiaChi.xlsx
+++ b/info/QuiDinhDiaChi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\MrTham\20220406MrThamGiamSat4Quat1DanMat\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C7696-3172-49AC-B4A6-7A8EBD1E528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D3180-F2A3-4C59-BD0B-2D22A0B4889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1290" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="491">
   <si>
     <t>Address</t>
   </si>
@@ -170,9 +170,6 @@
     <t>addressHMi</t>
   </si>
   <si>
-    <t>addressModbusTCp</t>
-  </si>
-  <si>
     <t>Chạy dự phòng</t>
   </si>
   <si>
@@ -1256,9 +1253,6 @@
     <t>O2</t>
   </si>
   <si>
-    <t>addressPLC</t>
-  </si>
-  <si>
     <t>D0</t>
   </si>
   <si>
@@ -1518,6 +1512,27 @@
   </si>
   <si>
     <t>M0</t>
+  </si>
+  <si>
+    <t>PLC tag name</t>
+  </si>
+  <si>
+    <t>plc tag address</t>
+  </si>
+  <si>
+    <t>Y0.0 (Coild)</t>
+  </si>
+  <si>
+    <t>Nhiệt ẩm</t>
+  </si>
+  <si>
+    <t>Nhiệt độ</t>
+  </si>
+  <si>
+    <t>Độ ẩm</t>
+  </si>
+  <si>
+    <t>Holding</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1639,6 +1654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +1728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1731,6 +1752,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1752,9 +1776,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2261,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,29 +2299,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="Q1" t="s">
+        <v>487</v>
+      </c>
+      <c r="R1" t="s">
+        <v>490</v>
+      </c>
       <c r="U1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -2331,17 +2360,23 @@
       <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="Q2" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="R2">
+        <v>511</v>
+      </c>
       <c r="U2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V2">
         <v>4097</v>
       </c>
       <c r="W2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA2" s="4">
         <v>1</v>
@@ -2367,23 +2402,29 @@
         <v>14</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O3" s="4"/>
+      <c r="Q3" t="s">
+        <v>489</v>
+      </c>
+      <c r="R3">
+        <v>513</v>
+      </c>
       <c r="U3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V3">
         <v>4096</v>
       </c>
       <c r="W3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA3" s="4">
         <v>2</v>
@@ -2391,7 +2432,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -2409,14 +2450,14 @@
         <v>14</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="4"/>
       <c r="Z4" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA4" s="4">
         <v>3</v>
@@ -2436,7 +2477,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="M5" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>20</v>
@@ -2451,24 +2492,24 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="M6" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="4"/>
       <c r="Z6" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA6" s="4">
         <v>5</v>
@@ -2476,24 +2517,24 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="M7" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O7" s="4"/>
       <c r="Z7" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA7" s="4">
         <v>6</v>
@@ -2501,17 +2542,17 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="M8" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>23</v>
@@ -2520,17 +2561,17 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="M9" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>24</v>
@@ -2539,17 +2580,17 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="M10" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>25</v>
@@ -2558,17 +2599,17 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="M11" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>26</v>
@@ -2577,17 +2618,17 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="M12" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>27</v>
@@ -2596,14 +2637,14 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" s="4"/>
       <c r="M13" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>32</v>
@@ -2612,28 +2653,28 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -2684,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S178"/>
+  <dimension ref="A1:S179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="I64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139:J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,7 +2744,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -2719,2684 +2760,2683 @@
         <v>35</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>36</v>
+        <v>485</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="J3" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>18</v>
+        <v>486</v>
       </c>
       <c r="M3" s="15">
-        <v>0</v>
+        <v>64512</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="J4" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="15">
-        <v>1</v>
+        <v>64513</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="J5" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="15">
-        <v>2</v>
+        <v>64514</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="J6" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="15">
-        <v>3</v>
+        <v>64515</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="J7" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28">
+      <c r="J7" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21">
         <v>4</v>
       </c>
-      <c r="N7" s="28" t="s">
-        <v>48</v>
+      <c r="N7" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="J8" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28">
+      <c r="J8" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21">
         <v>5</v>
       </c>
-      <c r="N8" s="28" t="s">
-        <v>48</v>
+      <c r="N8" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="J9" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28">
+      <c r="J9" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21">
         <v>6</v>
       </c>
-      <c r="N9" s="28" t="s">
-        <v>48</v>
+      <c r="N9" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="J10" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28">
+      <c r="J10" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21">
         <v>7</v>
       </c>
-      <c r="N10" s="28" t="s">
-        <v>48</v>
+      <c r="N10" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="J11" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28">
+      <c r="J11" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21">
         <v>8</v>
       </c>
-      <c r="N11" s="28" t="s">
-        <v>48</v>
+      <c r="N11" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="J12" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28">
+      <c r="J12" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21">
         <v>9</v>
       </c>
-      <c r="N12" s="28" t="s">
-        <v>48</v>
+      <c r="N12" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="J13" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="15">
-        <v>10</v>
+        <v>64516</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="J14" s="15" t="s">
-        <v>38</v>
+      <c r="J14" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="15">
-        <v>11</v>
+        <v>63488</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="J15" s="15" t="s">
-        <v>39</v>
+      <c r="J15" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="15">
-        <v>12</v>
+        <v>63489</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="J16" s="15" t="s">
-        <v>40</v>
+      <c r="J16" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M16" s="15">
-        <v>13</v>
+        <v>63490</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="J17" s="14" t="s">
-        <v>45</v>
+      <c r="J17" s="32" t="s">
+        <v>44</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M17" s="14">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
-      <c r="J18" s="15" t="s">
-        <v>312</v>
+      <c r="J18" s="32" t="s">
+        <v>311</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M18" s="15">
-        <v>15</v>
+        <v>63491</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="J19" s="15" t="s">
-        <v>313</v>
+      <c r="J19" s="32" t="s">
+        <v>312</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M19" s="15">
-        <v>16</v>
+        <v>63492</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
-      <c r="J20" s="15" t="s">
-        <v>314</v>
+      <c r="J20" s="32" t="s">
+        <v>313</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M20" s="15">
-        <v>17</v>
+        <v>63493</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="J21" s="15" t="s">
-        <v>315</v>
+      <c r="J21" s="32" t="s">
+        <v>314</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M21" s="15">
-        <v>18</v>
+        <v>63494</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="J22" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28">
+      <c r="J22" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21">
         <v>19</v>
       </c>
-      <c r="N22" s="28" t="s">
-        <v>324</v>
+      <c r="N22" s="21" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="J23" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28">
+      <c r="J23" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21">
         <v>20</v>
       </c>
-      <c r="N23" s="28" t="s">
-        <v>324</v>
+      <c r="N23" s="21" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="J24" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28">
+      <c r="J24" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21">
         <v>21</v>
       </c>
-      <c r="N24" s="28" t="s">
-        <v>324</v>
+      <c r="N24" s="21" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
-      <c r="J25" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28">
+      <c r="J25" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21">
         <v>22</v>
       </c>
-      <c r="N25" s="28" t="s">
-        <v>324</v>
+      <c r="N25" s="21" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="J26" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28">
+      <c r="J26" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21">
         <v>23</v>
       </c>
-      <c r="N26" s="28" t="s">
-        <v>324</v>
+      <c r="N26" s="21" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="J27" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28">
+      <c r="J27" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21">
         <v>24</v>
       </c>
-      <c r="N27" s="28" t="s">
-        <v>324</v>
+      <c r="N27" s="21" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
-      <c r="J28" s="15" t="s">
-        <v>322</v>
+      <c r="J28" s="32" t="s">
+        <v>321</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M28" s="15">
-        <v>25</v>
+        <v>63495</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="32"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="J30" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="J31" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="M31" s="15">
+        <v>1</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="J32" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="M29" s="15">
-        <v>0</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="J30" s="15" t="s">
+      <c r="K32" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21">
+        <v>2</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J33" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21">
+        <v>3</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J34" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="M34" s="15">
+        <v>2</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J35" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="M35" s="15">
+        <v>3</v>
+      </c>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J36" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="M30" s="15">
-        <v>1</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="J31" s="28" t="s">
+      <c r="L36" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="M36" s="15">
+        <v>4</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J37" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="M37" s="15">
+        <v>5</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J38" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="M38" s="15">
+        <v>6</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J39" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="M39" s="15">
+        <v>7</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J40" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="M40" s="15">
+        <v>8</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J41" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="M41" s="15">
+        <v>9</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J42" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="M42" s="15">
+        <v>10</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J43" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="M43" s="15">
+        <v>11</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J44" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="M44" s="15">
+        <v>12</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J45" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="M45" s="15">
+        <v>13</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J46" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" s="15">
+        <v>14</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J47" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="M47" s="15">
+        <v>15</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L48" s="22"/>
+      <c r="M48" s="23">
+        <v>18</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L49" s="22"/>
+      <c r="M49" s="23">
+        <v>19</v>
+      </c>
+      <c r="N49" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J50" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23">
+        <v>20</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J51" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23">
+        <v>21</v>
+      </c>
+      <c r="N51" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J52" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52" s="22"/>
+      <c r="M52" s="23">
+        <v>22</v>
+      </c>
+      <c r="N52" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J53" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L53" s="22"/>
+      <c r="M53" s="23">
+        <v>23</v>
+      </c>
+      <c r="N53" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J54" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="M54" s="7">
+        <v>16</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J55" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="M55" s="7">
+        <v>17</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J56" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" s="7">
+        <v>18</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J57" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="M57" s="7">
+        <v>19</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J58" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="M58" s="7">
+        <v>20</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J59" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="M59" s="7">
+        <v>21</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J60" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="M60" s="7">
+        <v>22</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J61" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="M61" s="7">
+        <v>23</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J62" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" s="7">
+        <v>24</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J63" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="M63" s="7">
+        <v>25</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J64" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="M64" s="7">
+        <v>26</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J65" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L65" s="22"/>
+      <c r="M65" s="23">
+        <v>35</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J66" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L66" s="22"/>
+      <c r="M66" s="23">
+        <v>36</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J67" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L67" s="22"/>
+      <c r="M67" s="23">
+        <v>37</v>
+      </c>
+      <c r="N67" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J68" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L68" s="22"/>
+      <c r="M68" s="23">
+        <v>38</v>
+      </c>
+      <c r="N68" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J69" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L69" s="22"/>
+      <c r="M69" s="23">
+        <v>39</v>
+      </c>
+      <c r="N69" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J70" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L70" s="22"/>
+      <c r="M70" s="23">
+        <v>40</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J71" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="M71" s="7">
+        <v>27</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J72" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="M72" s="7">
+        <v>28</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J73" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="M73" s="7">
+        <v>29</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J74" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="M74" s="7">
+        <v>30</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J75" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="M75" s="7">
+        <v>31</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J76" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="M76" s="7">
+        <v>32</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J77" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="M77" s="7">
+        <v>33</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J78" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="M78" s="7">
+        <v>34</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J79" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="M79" s="7">
+        <v>35</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J80" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="M80" s="7">
+        <v>36</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J81" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="M81" s="7">
+        <v>37</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J82" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K82" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L82" s="22"/>
+      <c r="M82" s="23">
+        <v>52</v>
+      </c>
+      <c r="N82" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J83" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K83" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L83" s="22"/>
+      <c r="M83" s="23">
+        <v>53</v>
+      </c>
+      <c r="N83" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J84" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K84" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L84" s="22"/>
+      <c r="M84" s="23">
+        <v>54</v>
+      </c>
+      <c r="N84" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J85" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K85" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L85" s="22"/>
+      <c r="M85" s="23">
+        <v>55</v>
+      </c>
+      <c r="N85" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J86" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L86" s="22"/>
+      <c r="M86" s="23">
+        <v>56</v>
+      </c>
+      <c r="N86" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J87" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K87" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L87" s="22"/>
+      <c r="M87" s="23">
+        <v>57</v>
+      </c>
+      <c r="N87" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J88" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="M88" s="7">
+        <v>38</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J89" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="M89" s="7">
+        <v>39</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J90" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M90" s="7">
+        <v>40</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J91" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="M91" s="7">
+        <v>41</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J92" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="M92" s="7">
         <v>42</v>
       </c>
-      <c r="K31" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28">
-        <v>2</v>
-      </c>
-      <c r="N31" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J32" s="28" t="s">
+      <c r="N92" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J93" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M93" s="7">
         <v>43</v>
       </c>
-      <c r="K32" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28">
-        <v>3</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J33" s="15" t="s">
+      <c r="N93" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J94" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="M94" s="7">
         <v>44</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="M33" s="15">
-        <v>4</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J34" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K34" s="15" t="s">
+      <c r="N94" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J95" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="M95" s="7">
+        <v>45</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J96" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="M96" s="7">
+        <v>46</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J97" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="M97" s="7">
+        <v>47</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J98" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="M98" s="7">
+        <v>48</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J99" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K99" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="L99" s="22"/>
+      <c r="M99" s="23">
+        <v>69</v>
+      </c>
+      <c r="N99" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J100" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K100" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="L100" s="22"/>
+      <c r="M100" s="23">
+        <v>70</v>
+      </c>
+      <c r="N100" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J101" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K101" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="L101" s="22"/>
+      <c r="M101" s="23">
+        <v>71</v>
+      </c>
+      <c r="N101" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J102" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K102" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="L102" s="22"/>
+      <c r="M102" s="23">
+        <v>72</v>
+      </c>
+      <c r="N102" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J103" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K103" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="L103" s="22"/>
+      <c r="M103" s="23">
+        <v>73</v>
+      </c>
+      <c r="N103" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J104" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K104" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="L104" s="22"/>
+      <c r="M104" s="23">
+        <v>74</v>
+      </c>
+      <c r="N104" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J105" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="M105" s="7">
+        <v>49</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J106" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="M106" s="7">
+        <v>50</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J107" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M107" s="7">
+        <v>51</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J108" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="M108" s="7">
+        <v>52</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J109" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="M109" s="7">
+        <v>53</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J110" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="M110" s="7">
+        <v>54</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J111" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="M111" s="7">
+        <v>55</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J112" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="M112" s="7">
+        <v>56</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J113" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="M113" s="7">
+        <v>57</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J114" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="M114" s="7">
+        <v>58</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J115" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M115" s="7">
+        <v>59</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J116" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K116" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="L116" s="22"/>
+      <c r="M116" s="23">
+        <v>86</v>
+      </c>
+      <c r="N116" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J117" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K117" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="L117" s="22"/>
+      <c r="M117" s="23">
+        <v>87</v>
+      </c>
+      <c r="N117" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J118" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K118" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="L118" s="22"/>
+      <c r="M118" s="23">
+        <v>88</v>
+      </c>
+      <c r="N118" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J119" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="K119" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="L119" s="22"/>
+      <c r="M119" s="23">
+        <v>89</v>
+      </c>
+      <c r="N119" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J120" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="K120" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="L120" s="22"/>
+      <c r="M120" s="23">
+        <v>90</v>
+      </c>
+      <c r="N120" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J121" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="K121" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="L121" s="22"/>
+      <c r="M121" s="23">
+        <v>91</v>
+      </c>
+      <c r="N121" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J122" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="M122" s="7">
+        <v>60</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J123" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="M123" s="7">
+        <v>61</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J124" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="M124" s="7">
+        <v>62</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J125" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="M125" s="7">
+        <v>63</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J126" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="M126" s="7">
+        <v>64</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J127" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="M127" s="7">
+        <v>65</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J128" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="M128" s="7">
+        <v>66</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J129" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="M129" s="7">
+        <v>67</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J130" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="M130" s="7">
+        <v>68</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J131" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="M131" s="7">
+        <v>69</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J132" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="M132" s="7">
+        <v>70</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J133" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K133" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="L133" s="22"/>
+      <c r="M133" s="23">
+        <v>103</v>
+      </c>
+      <c r="N133" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J134" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K134" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="L134" s="22"/>
+      <c r="M134" s="23">
+        <v>104</v>
+      </c>
+      <c r="N134" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J135" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K135" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="L135" s="22"/>
+      <c r="M135" s="23">
+        <v>105</v>
+      </c>
+      <c r="N135" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J136" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K136" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="L136" s="22"/>
+      <c r="M136" s="23">
+        <v>106</v>
+      </c>
+      <c r="N136" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J137" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K137" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="L137" s="22"/>
+      <c r="M137" s="23">
+        <v>107</v>
+      </c>
+      <c r="N137" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J138" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K138" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L138" s="22"/>
+      <c r="M138" s="23">
+        <v>108</v>
+      </c>
+      <c r="N138" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J139" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="M139" s="7">
+        <v>71</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J140" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="M140" s="7">
+        <v>72</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J141" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="M141" s="7">
+        <v>73</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J142" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="M142" s="7">
+        <v>74</v>
+      </c>
+      <c r="N142" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J143" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="M143" s="7">
+        <v>75</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J144" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="M144" s="7">
+        <v>76</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J145" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="M145" s="7">
+        <v>77</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J146" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="M146" s="7">
+        <v>78</v>
+      </c>
+      <c r="N146" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J147" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="M147" s="7">
+        <v>79</v>
+      </c>
+      <c r="N147" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J148" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="M148" s="7">
+        <v>80</v>
+      </c>
+      <c r="N148" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J149" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="M149" s="7">
+        <v>81</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J150" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="K150" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="L150" s="22"/>
+      <c r="M150" s="23">
+        <v>120</v>
+      </c>
+      <c r="N150" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J151" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K151" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="L151" s="22"/>
+      <c r="M151" s="23">
+        <v>121</v>
+      </c>
+      <c r="N151" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J152" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K152" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="L152" s="22"/>
+      <c r="M152" s="23">
+        <v>122</v>
+      </c>
+      <c r="N152" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J153" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K153" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="L153" s="22"/>
+      <c r="M153" s="23">
+        <v>123</v>
+      </c>
+      <c r="N153" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J154" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K154" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="L154" s="22"/>
+      <c r="M154" s="23">
+        <v>124</v>
+      </c>
+      <c r="N154" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J155" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K155" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="L155" s="22"/>
+      <c r="M155" s="23">
+        <v>125</v>
+      </c>
+      <c r="N155" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J156" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="M156" s="7">
+        <v>82</v>
+      </c>
+      <c r="N156" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J157" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="M157" s="7">
+        <v>83</v>
+      </c>
+      <c r="N157" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J158" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="M158" s="7">
+        <v>84</v>
+      </c>
+      <c r="N158" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J159" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="L34" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="M34" s="15">
-        <v>5</v>
-      </c>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="M35" s="7">
-        <v>6</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="M36" s="7">
-        <v>7</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="M37" s="7">
-        <v>8</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J38" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="M38" s="7">
-        <v>9</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="M39" s="7">
-        <v>10</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="M40" s="7">
-        <v>11</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="M41" s="7">
-        <v>12</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="M42" s="7">
-        <v>13</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="M43" s="7">
-        <v>14</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="M44" s="7">
-        <v>15</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J45" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="M45" s="7">
-        <v>16</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="M46" s="7">
-        <v>17</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J47" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="L47" s="29"/>
-      <c r="M47" s="30">
-        <v>18</v>
-      </c>
-      <c r="N47" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J48" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="L48" s="29"/>
-      <c r="M48" s="30">
-        <v>19</v>
-      </c>
-      <c r="N48" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J49" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="K49" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="L49" s="29"/>
-      <c r="M49" s="30">
-        <v>20</v>
-      </c>
-      <c r="N49" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J50" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="K50" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="L50" s="29"/>
-      <c r="M50" s="30">
-        <v>21</v>
-      </c>
-      <c r="N50" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J51" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="K51" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="L51" s="29"/>
-      <c r="M51" s="30">
-        <v>22</v>
-      </c>
-      <c r="N51" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J52" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="L52" s="29"/>
-      <c r="M52" s="30">
-        <v>23</v>
-      </c>
-      <c r="N52" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J53" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="M53" s="7">
-        <v>24</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="M54" s="7">
-        <v>25</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J55" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="M55" s="7">
-        <v>26</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="M56" s="7">
-        <v>27</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M57" s="7">
-        <v>28</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J58" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="M58" s="7">
-        <v>29</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="M59" s="7">
-        <v>30</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="M60" s="7">
-        <v>31</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="M61" s="7">
-        <v>32</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J62" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="M62" s="7">
-        <v>33</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J63" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="M63" s="7">
-        <v>34</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J64" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K64" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="L64" s="29"/>
-      <c r="M64" s="30">
-        <v>35</v>
-      </c>
-      <c r="N64" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J65" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L65" s="29"/>
-      <c r="M65" s="30">
-        <v>36</v>
-      </c>
-      <c r="N65" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J66" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K66" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="L66" s="29"/>
-      <c r="M66" s="30">
-        <v>37</v>
-      </c>
-      <c r="N66" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J67" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K67" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="L67" s="29"/>
-      <c r="M67" s="30">
-        <v>38</v>
-      </c>
-      <c r="N67" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J68" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K68" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="L68" s="29"/>
-      <c r="M68" s="30">
-        <v>39</v>
-      </c>
-      <c r="N68" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J69" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K69" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="L69" s="29"/>
-      <c r="M69" s="30">
-        <v>40</v>
-      </c>
-      <c r="N69" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="M70" s="7">
-        <v>41</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J71" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="M71" s="7">
-        <v>42</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J72" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="M72" s="7">
-        <v>43</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J73" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="M73" s="7">
-        <v>44</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J74" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="M74" s="7">
-        <v>45</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J75" s="4" t="s">
+      <c r="L159" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="M159" s="7">
         <v>85</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="M75" s="7">
-        <v>46</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J76" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="M76" s="7">
-        <v>47</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J77" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="M77" s="7">
-        <v>48</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="M78" s="7">
-        <v>49</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J79" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="M79" s="7">
-        <v>50</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J80" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="M80" s="7">
-        <v>51</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J81" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="K81" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="L81" s="29"/>
-      <c r="M81" s="30">
-        <v>52</v>
-      </c>
-      <c r="N81" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J82" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="K82" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="L82" s="29"/>
-      <c r="M82" s="30">
-        <v>53</v>
-      </c>
-      <c r="N82" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J83" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="K83" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="L83" s="29"/>
-      <c r="M83" s="30">
-        <v>54</v>
-      </c>
-      <c r="N83" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J84" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="K84" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="L84" s="29"/>
-      <c r="M84" s="30">
-        <v>55</v>
-      </c>
-      <c r="N84" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J85" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="K85" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="L85" s="29"/>
-      <c r="M85" s="30">
-        <v>56</v>
-      </c>
-      <c r="N85" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J86" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="K86" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="L86" s="29"/>
-      <c r="M86" s="30">
-        <v>57</v>
-      </c>
-      <c r="N86" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J87" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="M87" s="7">
-        <v>58</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J88" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="M88" s="7">
-        <v>59</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J89" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="M89" s="7">
-        <v>60</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J90" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="M90" s="7">
-        <v>61</v>
-      </c>
-      <c r="N90" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J91" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="M91" s="7">
-        <v>62</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J92" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="M92" s="7">
-        <v>63</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J93" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="M93" s="7">
-        <v>64</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J94" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L94" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M94" s="7">
-        <v>65</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J95" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="M95" s="7">
-        <v>66</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J96" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="M96" s="7">
-        <v>67</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J97" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="M97" s="7">
-        <v>68</v>
-      </c>
-      <c r="N97" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J98" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="K98" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="L98" s="29"/>
-      <c r="M98" s="30">
-        <v>69</v>
-      </c>
-      <c r="N98" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J99" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="K99" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="L99" s="29"/>
-      <c r="M99" s="30">
-        <v>70</v>
-      </c>
-      <c r="N99" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J100" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K100" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="L100" s="29"/>
-      <c r="M100" s="30">
-        <v>71</v>
-      </c>
-      <c r="N100" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J101" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K101" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="L101" s="29"/>
-      <c r="M101" s="30">
-        <v>72</v>
-      </c>
-      <c r="N101" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J102" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K102" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="L102" s="29"/>
-      <c r="M102" s="30">
-        <v>73</v>
-      </c>
-      <c r="N102" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J103" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="K103" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="L103" s="29"/>
-      <c r="M103" s="30">
-        <v>74</v>
-      </c>
-      <c r="N103" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J104" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="M104" s="7">
-        <v>75</v>
-      </c>
-      <c r="N104" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J105" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="M105" s="7">
-        <v>76</v>
-      </c>
-      <c r="N105" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J106" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="M106" s="7">
-        <v>77</v>
-      </c>
-      <c r="N106" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J107" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="L107" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="M107" s="7">
-        <v>78</v>
-      </c>
-      <c r="N107" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J108" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="M108" s="7">
-        <v>79</v>
-      </c>
-      <c r="N108" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J109" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="M109" s="7">
-        <v>80</v>
-      </c>
-      <c r="N109" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="110" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J110" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="L110" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="M110" s="7">
-        <v>81</v>
-      </c>
-      <c r="N110" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J111" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="M111" s="7">
-        <v>82</v>
-      </c>
-      <c r="N111" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J112" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="L112" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="M112" s="7">
-        <v>83</v>
-      </c>
-      <c r="N112" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J113" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M113" s="7">
-        <v>84</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J114" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L114" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="M114" s="7">
-        <v>85</v>
-      </c>
-      <c r="N114" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J115" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="K115" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="L115" s="29"/>
-      <c r="M115" s="30">
-        <v>86</v>
-      </c>
-      <c r="N115" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J116" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="K116" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="L116" s="29"/>
-      <c r="M116" s="30">
-        <v>87</v>
-      </c>
-      <c r="N116" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J117" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="K117" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="L117" s="29"/>
-      <c r="M117" s="30">
-        <v>88</v>
-      </c>
-      <c r="N117" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J118" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="K118" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="L118" s="29"/>
-      <c r="M118" s="30">
-        <v>89</v>
-      </c>
-      <c r="N118" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J119" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="K119" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="L119" s="29"/>
-      <c r="M119" s="30">
-        <v>90</v>
-      </c>
-      <c r="N119" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J120" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="K120" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="L120" s="29"/>
-      <c r="M120" s="30">
-        <v>91</v>
-      </c>
-      <c r="N120" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J121" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="M121" s="7">
-        <v>92</v>
-      </c>
-      <c r="N121" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J122" s="4" t="s">
+      <c r="N159" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J160" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="K160" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="L160" s="22"/>
+      <c r="M160" s="23">
         <v>130</v>
       </c>
-      <c r="K122" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L122" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="M122" s="7">
-        <v>93</v>
-      </c>
-      <c r="N122" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J123" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="L123" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="M123" s="7">
-        <v>94</v>
-      </c>
-      <c r="N123" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J124" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="L124" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="M124" s="7">
-        <v>95</v>
-      </c>
-      <c r="N124" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J125" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="L125" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="M125" s="7">
-        <v>96</v>
-      </c>
-      <c r="N125" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J126" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="L126" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="M126" s="7">
-        <v>97</v>
-      </c>
-      <c r="N126" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J127" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L127" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="M127" s="7">
-        <v>98</v>
-      </c>
-      <c r="N127" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J128" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="L128" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="M128" s="7">
-        <v>99</v>
-      </c>
-      <c r="N128" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J129" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="L129" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="M129" s="7">
-        <v>100</v>
-      </c>
-      <c r="N129" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J130" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="L130" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="M130" s="7">
-        <v>101</v>
-      </c>
-      <c r="N130" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J131" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="L131" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="M131" s="7">
-        <v>102</v>
-      </c>
-      <c r="N131" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J132" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="K132" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="L132" s="29"/>
-      <c r="M132" s="30">
-        <v>103</v>
-      </c>
-      <c r="N132" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J133" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="K133" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="L133" s="29"/>
-      <c r="M133" s="30">
-        <v>104</v>
-      </c>
-      <c r="N133" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J134" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="K134" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="L134" s="29"/>
-      <c r="M134" s="30">
-        <v>105</v>
-      </c>
-      <c r="N134" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J135" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K135" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="L135" s="29"/>
-      <c r="M135" s="30">
-        <v>106</v>
-      </c>
-      <c r="N135" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J136" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="K136" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="L136" s="29"/>
-      <c r="M136" s="30">
-        <v>107</v>
-      </c>
-      <c r="N136" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J137" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="K137" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="L137" s="29"/>
-      <c r="M137" s="30">
-        <v>108</v>
-      </c>
-      <c r="N137" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J138" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="M138" s="7">
-        <v>109</v>
-      </c>
-      <c r="N138" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J139" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="L139" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="M139" s="7">
-        <v>110</v>
-      </c>
-      <c r="N139" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J140" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L140" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="M140" s="7">
-        <v>111</v>
-      </c>
-      <c r="N140" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J141" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="M141" s="7">
-        <v>112</v>
-      </c>
-      <c r="N141" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="142" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J142" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K142" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L142" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="M142" s="7">
-        <v>113</v>
-      </c>
-      <c r="N142" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J143" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="L143" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="M143" s="7">
-        <v>114</v>
-      </c>
-      <c r="N143" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J144" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="M144" s="7">
-        <v>115</v>
-      </c>
-      <c r="N144" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J145" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="M145" s="7">
-        <v>116</v>
-      </c>
-      <c r="N145" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J146" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="L146" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="M146" s="7">
-        <v>117</v>
-      </c>
-      <c r="N146" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J147" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="L147" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="M147" s="7">
-        <v>118</v>
-      </c>
-      <c r="N147" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J148" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="L148" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="M148" s="7">
-        <v>119</v>
-      </c>
-      <c r="N148" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J149" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="K149" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="L149" s="29"/>
-      <c r="M149" s="30">
-        <v>120</v>
-      </c>
-      <c r="N149" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J150" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="K150" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="L150" s="29"/>
-      <c r="M150" s="30">
-        <v>121</v>
-      </c>
-      <c r="N150" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="151" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J151" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K151" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="L151" s="29"/>
-      <c r="M151" s="30">
-        <v>122</v>
-      </c>
-      <c r="N151" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J152" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="K152" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="L152" s="29"/>
-      <c r="M152" s="30">
-        <v>123</v>
-      </c>
-      <c r="N152" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="153" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J153" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="K153" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="L153" s="29"/>
-      <c r="M153" s="30">
-        <v>124</v>
-      </c>
-      <c r="N153" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="154" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J154" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="K154" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="L154" s="29"/>
-      <c r="M154" s="30">
-        <v>125</v>
-      </c>
-      <c r="N154" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="155" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J155" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L155" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="M155" s="7">
-        <v>126</v>
-      </c>
-      <c r="N155" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J156" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="L156" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M156" s="7">
-        <v>127</v>
-      </c>
-      <c r="N156" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="157" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J157" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="L157" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="M157" s="7">
-        <v>128</v>
-      </c>
-      <c r="N157" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="158" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J158" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K158" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="L158" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="M158" s="7">
-        <v>129</v>
-      </c>
-      <c r="N158" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="159" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J159" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="K159" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="L159" s="29"/>
-      <c r="M159" s="30">
-        <v>130</v>
-      </c>
-      <c r="N159" s="29"/>
-    </row>
-    <row r="160" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J160" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="K160" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="L160" s="20"/>
-      <c r="M160" s="20"/>
-      <c r="N160" s="20" t="s">
-        <v>387</v>
-      </c>
+      <c r="N160" s="22"/>
     </row>
     <row r="161" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J161" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L161" s="20"/>
       <c r="M161" s="20"/>
-      <c r="N161" s="20"/>
+      <c r="N161" s="20" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="162" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J162" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K162" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L162" s="20"/>
       <c r="M162" s="20"/>
@@ -5404,10 +5444,10 @@
     </row>
     <row r="163" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J163" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L163" s="20"/>
       <c r="M163" s="20"/>
@@ -5415,10 +5455,10 @@
     </row>
     <row r="164" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J164" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L164" s="20"/>
       <c r="M164" s="20"/>
@@ -5426,10 +5466,10 @@
     </row>
     <row r="165" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J165" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K165" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L165" s="20"/>
       <c r="M165" s="20"/>
@@ -5437,21 +5477,25 @@
     </row>
     <row r="166" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J166" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K166" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L166" s="20"/>
       <c r="M166" s="20"/>
       <c r="N166" s="20"/>
     </row>
     <row r="167" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
+      <c r="J167" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="K167" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="20"/>
     </row>
     <row r="168" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J168" s="4"/>
@@ -5530,10 +5574,17 @@
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
     </row>
+    <row r="179" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A17:A30"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/info/QuiDinhDiaChi.xlsx
+++ b/info/QuiDinhDiaChi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\MrTham\20220406MrThamGiamSat4Quat1DanMat\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F479B7-A809-40EB-9ED8-9666E725A625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE7BB22-B163-40C6-B21E-770484E48A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="374">
   <si>
     <t>Address</t>
   </si>
@@ -1179,6 +1179,9 @@
   </si>
   <si>
     <t>holding</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2323,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115:K116"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,9 +2384,14 @@
       <c r="L3" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="14">
+        <v>10</v>
+      </c>
       <c r="N3" s="24" t="s">
         <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2399,9 +2407,14 @@
       <c r="L4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="14">
+        <v>11</v>
+      </c>
       <c r="N4" s="24" t="s">
         <v>39</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2417,9 +2430,14 @@
       <c r="L5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="14"/>
+      <c r="M5" s="14">
+        <v>12</v>
+      </c>
       <c r="N5" s="24" t="s">
         <v>39</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2435,9 +2453,14 @@
       <c r="L6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="14">
+        <v>13</v>
+      </c>
       <c r="N6" s="24" t="s">
         <v>39</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2453,9 +2476,14 @@
       <c r="L7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="14">
+        <v>14</v>
+      </c>
       <c r="N7" s="24" t="s">
         <v>218</v>
+      </c>
+      <c r="P7">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
